--- a/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion.xlsx
+++ b/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion.xlsx
@@ -416,37 +416,37 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.268416968973957</v>
+        <v>0.0233936902987173</v>
       </c>
       <c r="B2">
-        <v>0.2748272205755674</v>
+        <v>0.02435509861631267</v>
       </c>
       <c r="C2">
-        <v>0.362799825921802</v>
+        <v>0.01638139577444667</v>
       </c>
       <c r="D2">
-        <v>0.425753329576671</v>
+        <v>0.0215334684803855</v>
       </c>
       <c r="E2">
-        <v>0.4167739459860217</v>
+        <v>0.02271380992234233</v>
       </c>
       <c r="F2">
-        <v>0.452886554799196</v>
+        <v>0.02396259519812947</v>
       </c>
       <c r="G2">
-        <v>0.571501559264444</v>
+        <v>0.02267511898940877</v>
       </c>
       <c r="H2">
-        <v>0.6254799191526229</v>
+        <v>0.0168494776383942</v>
       </c>
       <c r="I2">
-        <v>0.7161160664687096</v>
+        <v>0.0057932781162695</v>
       </c>
       <c r="J2">
-        <v>0.7845542093577728</v>
+        <v>0.005679314112165876</v>
       </c>
       <c r="K2">
-        <v>0.812728965819457</v>
+        <v>0.02230170902716915</v>
       </c>
     </row>
   </sheetData>
